--- a/regression_results.xlsx
+++ b/regression_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +461,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>R²</t>
+          <t>Adjusted R2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>p-value</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Lag</t>
         </is>
@@ -478,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>wsc_norm</t>
+          <t>wsc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>flow_norm</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +497,33 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3981196609257845</v>
+        <v>21401.3559946312</v>
       </c>
       <c r="E2" t="n">
-        <v>1.934313968047991e-16</v>
+        <v>1.099389856624363</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1584992644156616</v>
+        <v>0.1559798011354692</v>
       </c>
       <c r="G2" t="n">
-        <v>3.290165525681996e-14</v>
+        <v>0.1584992644156618</v>
       </c>
       <c r="H2" t="n">
+        <v>3.290165525681926e-14</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>wsc_norm</t>
+          <t>wsc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>flow_norm</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +532,33 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.07869790365986816</v>
+        <v>22429.72312137598</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1890493205214709</v>
+        <v>1.098278692325189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009178860648820501</v>
+        <v>0.04836172366191893</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6714790877100034</v>
+        <v>0.08360758574851461</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>0.1356024209167427</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>wsc_norm</t>
+          <t>wsc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>flow_norm_el_400</t>
+          <t>flow_el_400</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +567,33 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2158084323905054</v>
+        <v>38911.32672802404</v>
       </c>
       <c r="E4" t="n">
-        <v>1.686627282839551e-16</v>
+        <v>4.49551370038996</v>
       </c>
       <c r="F4" t="n">
+        <v>0.04371870847135884</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.04657327949084734</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6.658031749819556e-05</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>wsc_norm</t>
+          <t>wsc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>flow_norm_el_400</t>
+          <t>flow_el_400</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +602,33 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.03071540483368732</v>
+        <v>-67918.61032768289</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.124277706234855</v>
+        <v>4.454753379178873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001403371701747233</v>
+        <v>0.0350759824756417</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8685414398134947</v>
+        <v>0.07893616509038524</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>0.1940743964174141</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wsc_norm</t>
+          <t>wsc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>flow_norm_el_1500</t>
+          <t>flow_el_1500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +637,33 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.141156524237166</v>
+        <v>58427.77731832791</v>
       </c>
       <c r="E6" t="n">
-        <v>2.599781452308414e-17</v>
+        <v>6.984273177968962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01992516433471763</v>
+        <v>0.01699080853931256</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009575759966781849</v>
+        <v>0.01992516433471761</v>
       </c>
       <c r="H6" t="n">
+        <v>0.009575759966781901</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>wsc_norm</t>
+          <t>wsc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>flow_norm_el_1500</t>
+          <t>flow_el_1500</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,19 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1058493270516881</v>
+        <v>-185164.0767928058</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03632003920940541</v>
+        <v>7.048640502147016</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01740115831477763</v>
+        <v>0.04350411857470105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.558427181552023</v>
+        <v>0.08176395383171295</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>0.1567477280115066</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -690,12 +713,15 @@
         <v>-0.006594842106222431</v>
       </c>
       <c r="F8" t="n">
+        <v>0.004602804824978213</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.007619159961872197</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.1129478383916832</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -722,12 +748,15 @@
         <v>-0.02327296310783264</v>
       </c>
       <c r="F9" t="n">
+        <v>0.01829266376326999</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.05605063823391344</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.2344497493872726</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -754,12 +783,15 @@
         <v>-0.007674203224905564</v>
       </c>
       <c r="F10" t="n">
+        <v>0.005111680129506913</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.008126493220023453</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.101586056321357</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -780,19 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.001169592447649629</v>
+        <v>-0.256957790360779</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006425869149566887</v>
+        <v>-0.02511291652976417</v>
       </c>
       <c r="F11" t="n">
-        <v>1.53377115724117e-06</v>
+        <v>0.02994202725217643</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9957490745722437</v>
+        <v>0.06725194928093887</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>0.1914725749565604</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -818,12 +853,15 @@
         <v>-0.01016212550811246</v>
       </c>
       <c r="F12" t="n">
+        <v>-0.0009541041676461859</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.002079090087407289</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.4083179319920137</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -850,12 +888,15 @@
         <v>-0.04076486220382047</v>
       </c>
       <c r="F13" t="n">
+        <v>-0.003863895735628731</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.03474625410035703</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.3518825206653131</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -882,12 +923,15 @@
         <v>-0.006594842106222431</v>
       </c>
       <c r="F14" t="n">
+        <v>0.004602804824978213</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.007619159961872197</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.1129478383916832</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -914,12 +958,15 @@
         <v>-0.02327296310783264</v>
       </c>
       <c r="F15" t="n">
+        <v>0.01829266376326999</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.05605063823391344</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.2344497493872726</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -946,12 +993,15 @@
         <v>-0.007674203224905564</v>
       </c>
       <c r="F16" t="n">
+        <v>0.005111680129506913</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.008126493220023453</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0.101586056321357</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -972,19 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.001169592447649629</v>
+        <v>-0.256957790360779</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006425869149566887</v>
+        <v>-0.02511291652976417</v>
       </c>
       <c r="F17" t="n">
-        <v>1.53377115724117e-06</v>
+        <v>0.02994202725217643</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9957490745722437</v>
+        <v>0.06725194928093887</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>0.1914725749565604</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1010,12 +1063,15 @@
         <v>-0.007085303141045917</v>
       </c>
       <c r="F18" t="n">
+        <v>0.003323454490778754</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.006343686446867346</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.1482133821148221</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1042,12 +1098,15 @@
         <v>-0.0215979028564248</v>
       </c>
       <c r="F19" t="n">
+        <v>0.01037060092383679</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.04843327011907396</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0.2700152522109874</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1074,12 +1133,15 @@
         <v>-0.01157970306251258</v>
       </c>
       <c r="F20" t="n">
+        <v>-0.002674071604164663</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.0004301824874891663</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.7099432902527016</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1106,12 +1168,15 @@
         <v>-0.02935415037362406</v>
       </c>
       <c r="F21" t="n">
+        <v>0.03166416449651333</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.06890785047741675</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>0.1859014618359434</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,12 +1203,15 @@
         <v>-0.03752666075311616</v>
       </c>
       <c r="F22" t="n">
+        <v>0.00147970658348584</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.004629612871866078</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>0.2262888549589232</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1170,12 +1238,15 @@
         <v>-0.03610015788138417</v>
       </c>
       <c r="F23" t="n">
+        <v>0.039214426066293</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.0761677173714356</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.1634871995936213</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1202,12 +1273,15 @@
         <v>-0.03061799640299276</v>
       </c>
       <c r="F24" t="n">
+        <v>-0.002714201179202291</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.0004489351021200527</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.7066254172723374</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1228,19 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.0514196135270068</v>
+        <v>0.2314717934797875</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04914579296813285</v>
+        <v>-0.03458238636634847</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002902234214662672</v>
+        <v>0.01750505125327617</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8165960180408509</v>
+        <v>0.05529331851276562</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>0.2377300866120694</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1266,12 +1343,15 @@
         <v>-0.01157970306251258</v>
       </c>
       <c r="F26" t="n">
+        <v>-0.002674071604164663</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.0004301824874891663</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>0.7099432902527016</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1298,12 +1378,15 @@
         <v>-0.02935415037362406</v>
       </c>
       <c r="F27" t="n">
+        <v>0.03166416449651333</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.06890785047741675</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>0.1859014618359434</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,12 +1413,15 @@
         <v>-0.03752666075311616</v>
       </c>
       <c r="F28" t="n">
+        <v>0.00147970658348584</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.004629612871866078</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>0.2262888549589232</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1362,12 +1448,15 @@
         <v>-0.03610015788138417</v>
       </c>
       <c r="F29" t="n">
+        <v>0.039214426066293</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.0761677173714356</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>0.1634871995936213</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1394,12 +1483,15 @@
         <v>-0.03043254142326945</v>
       </c>
       <c r="F30" t="n">
+        <v>0.0008580413950047827</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.004009908772307682</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>0.2602039026941715</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>18</v>
       </c>
     </row>
@@ -1426,12 +1518,15 @@
         <v>-0.03330133599530134</v>
       </c>
       <c r="F31" t="n">
+        <v>0.07191290527634098</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.1076085627657125</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>0.09482730508098841</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,9 +1556,12 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1493,9 +1591,12 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.269604492187633e-257</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1525,9 +1626,12 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1557,9 +1661,12 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.269604492187633e-257</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1586,12 +1693,15 @@
         <v>-2.551484103346403e-17</v>
       </c>
       <c r="F36" t="n">
+        <v>0.8871290619385697</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.8874659901118873</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>1.697836193445816e-160</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1618,12 +1728,15 @@
         <v>-1.754057634215213e-16</v>
       </c>
       <c r="F37" t="n">
+        <v>0.7921760166053832</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.7998732011755542</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>1.418836444367734e-10</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1644,18 +1757,21 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5217704618710529</v>
+        <v>0.5421196348648601</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02396022068098145</v>
+        <v>-3.198787035166603e-16</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2938936985060097</v>
+        <v>0.2667357638331637</v>
       </c>
       <c r="G38" t="n">
-        <v>0.002882374160263137</v>
+        <v>0.2938936985060094</v>
       </c>
       <c r="H38" t="n">
+        <v>0.002882374160263157</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1676,18 +1792,21 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.4631820510041614</v>
+        <v>0.4812462619403478</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02126978234400677</v>
+        <v>-5.420265038035021e-16</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2315979646315582</v>
+        <v>0.2020440401943102</v>
       </c>
       <c r="G39" t="n">
-        <v>0.009523329911160837</v>
+        <v>0.2315979646315581</v>
       </c>
       <c r="H39" t="n">
+        <v>0.009523329911160857</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,19 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.09236885629957725</v>
+        <v>0.2273289372754511</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01324375539429504</v>
+        <v>-3.157682964169296e-16</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01253013136145214</v>
+        <v>0.01520453978904712</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6290408786035415</v>
+        <v>0.05167844572278602</v>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>0.2446760669956881</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1740,18 +1862,21 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.3119698643163455</v>
+        <v>0.3241367637515167</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1476459280503895</v>
+        <v>0.1333199603288152</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1002009436633095</v>
+        <v>0.05735336955203829</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1411318308886728</v>
+        <v>0.1002009436633094</v>
       </c>
       <c r="H41" t="n">
+        <v>0.141131830888673</v>
+      </c>
+      <c r="I41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1772,19 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.3321945701504253</v>
+        <v>0.3176739371607294</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1196688200295394</v>
+        <v>0.127101804787547</v>
       </c>
       <c r="F42" t="n">
-        <v>0.106511245581598</v>
+        <v>0.05368341119128417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.186245863161653</v>
+        <v>0.0966978015916803</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>0.1486683693743965</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1804,19 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.006657588384713686</v>
+        <v>0.1977889558297619</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.004246947618770178</v>
+        <v>0.02036508741028436</v>
       </c>
       <c r="F43" t="n">
-        <v>4.197300916325601e-05</v>
+        <v>-0.009174376067162315</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9771724657691203</v>
+        <v>0.03669718648134512</v>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>0.381230884253508</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1836,18 +1967,21 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.3119698643163455</v>
+        <v>0.3241367637515167</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1476459280503895</v>
+        <v>0.1333199603288152</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1002009436633095</v>
+        <v>0.05735336955203829</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1411318308886728</v>
+        <v>0.1002009436633094</v>
       </c>
       <c r="H44" t="n">
+        <v>0.141131830888673</v>
+      </c>
+      <c r="I44" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1868,19 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.3321945701504253</v>
+        <v>0.3176739371607294</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1196688200295394</v>
+        <v>0.127101804787547</v>
       </c>
       <c r="F45" t="n">
-        <v>0.106511245581598</v>
+        <v>0.05368341119128417</v>
       </c>
       <c r="G45" t="n">
-        <v>0.186245863161653</v>
+        <v>0.0966978015916803</v>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>0.1486683693743965</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1900,30 +2037,33 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.1440130008768387</v>
+        <v>0.3991703423260476</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1083312014471682</v>
+        <v>0.1169594973735635</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01948191254762937</v>
+        <v>0.1061996419016091</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5355825446250574</v>
+        <v>0.1468269309060814</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>0.07110744367691689</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>flow_norm</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1932,30 +2072,33 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.2899700625807962</v>
+        <v>1.71927242623193</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.1597354647766176</v>
+        <v>-0.2815540410202948</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06778798395082061</v>
+        <v>0.2231595026246393</v>
       </c>
       <c r="G47" t="n">
-        <v>0.296738967040362</v>
+        <v>0.2519313728978008</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>0.006498613455768661</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>flow_norm_el_400</t>
+          <t>flow_el_400</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1964,30 +2107,33 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.3139787210923493</v>
+        <v>0.2662710163161448</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.1102227365041415</v>
+        <v>0.4401336972027996</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09264210353464289</v>
+        <v>0.05014613401043022</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1153069038287528</v>
+        <v>0.08532590682485869</v>
       </c>
       <c r="H48" t="n">
+        <v>0.1314710413786675</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>flow_norm_el_1500</t>
+          <t>flow_el_1500</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1996,30 +2142,33 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3240531545683371</v>
+        <v>0.03760367594941835</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1102227365041415</v>
+        <v>1.41652410385007</v>
       </c>
       <c r="F49" t="n">
-        <v>0.09868257705849744</v>
+        <v>-0.0328689874653969</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1035269921409284</v>
+        <v>0.008445772033219039</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>0.6552325976284095</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>flow_norm</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2028,30 +2177,33 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.3810861558985137</v>
+        <v>0.9890727213656034</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1459594731081885</v>
+        <v>0.5075904459386289</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1275336919579104</v>
+        <v>0.1588887215826531</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07968893404548665</v>
+        <v>0.190040991153666</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0.02039741771246701</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>flow_norm_el_400</t>
+          <t>flow_el_400</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2060,30 +2212,33 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-0.3417151674550958</v>
+        <v>0.1506874104208822</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.1901139112676752</v>
+        <v>0.9594212380369572</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0799347709439014</v>
+        <v>0.02840031291192069</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2556291425061661</v>
+        <v>0.06438548650777556</v>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>0.1926048295541539</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>flow_norm_el_1500</t>
+          <t>flow_el_1500</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2092,19 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.4521632800895591</v>
+        <v>-0.06660579352451947</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.2060660755121795</v>
+        <v>2.165811820434958</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1431675527235537</v>
+        <v>0.03099155910099916</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1215537924848162</v>
+        <v>0.06975189673695927</v>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>0.1923213741357226</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2124,19 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.326934212937992</v>
+        <v>0.2126849062225832</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.05712387856969731</v>
+        <v>0.02144914834619046</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09051426718011371</v>
+        <v>0.007632056771028628</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1353132028735412</v>
+        <v>0.04580005458752746</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0.2837710438857518</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2156,19 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.3035667650090934</v>
+        <v>0.1964333697052289</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.05930018978988456</v>
+        <v>0.02179924787855868</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07902668679426254</v>
+        <v>0.0006260478700245153</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1641755471087456</v>
+        <v>0.03906350756733135</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0.3230595587640833</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2188,19 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.2376349836041861</v>
+        <v>-0.1731223870387239</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.07173969553364275</v>
+        <v>1.393604906638263e-16</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05325880828436873</v>
+        <v>-0.007337432917783993</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2566830286921741</v>
+        <v>0.02997136089398571</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0.3783228861052217</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2220,19 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-0.01317889763213497</v>
+        <v>-0.44050538989064</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.05986193046559572</v>
+        <v>1.221496551656315e-16</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0001743584727192467</v>
+        <v>0.1630467292351163</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9478805773468368</v>
+        <v>0.1940449985227047</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0.0189725862492661</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2252,19 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.01095432239328956</v>
+        <v>-0.4645539456161128</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.05977389423709362</v>
+        <v>1.23760828277266e-16</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0001205294080761539</v>
+        <v>0.1856492287100944</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9566574796482032</v>
+        <v>0.2158103683874984</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0.0127547558280281</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2284,30 +2457,33 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.07734890341966105</v>
+        <v>-0.4658304066875084</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.05959186414114164</v>
+        <v>2.315523469403821e-16</v>
       </c>
       <c r="F58" t="n">
-        <v>0.006008952065093593</v>
+        <v>0.1868825050175206</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7007472696631558</v>
+        <v>0.2169979677946495</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0.01247909685823706</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>flow_norm_t2_100</t>
+          <t>flow_t2_100</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2316,30 +2492,33 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.326934212937992</v>
+        <v>0.4432913949281644</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.05712387856969731</v>
+        <v>1.565297925145155</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09051426718011371</v>
+        <v>0.007632056771028628</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1353132028735412</v>
+        <v>0.04580005458752748</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0.2837710438857518</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>flow_norm_t2_400</t>
+          <t>flow_t2_400</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2348,30 +2527,33 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.3035667650090934</v>
+        <v>0.1063728995919549</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.05930018978988456</v>
+        <v>1.492897928852584</v>
       </c>
       <c r="F60" t="n">
-        <v>0.07902668679426254</v>
+        <v>0.0006260478700245153</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1641755471087456</v>
+        <v>0.03906350756733137</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0.3230595587640831</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>flow_norm_t2_1500</t>
+          <t>flow_t2_1500</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2380,30 +2562,33 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.3028103293064311</v>
+        <v>0.04398410978869006</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.06742776093659456</v>
+        <v>1.430664818547407</v>
       </c>
       <c r="F61" t="n">
-        <v>0.08690718709901821</v>
+        <v>0.001789920813711654</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1437458768854411</v>
+        <v>0.04018261616703044</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0.3160846753627696</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>flow_norm_t2_100</t>
+          <t>flow_t2_100</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2412,30 +2597,33 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-0.01317889763213497</v>
+        <v>-0.564014234780949</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05986193046559572</v>
+        <v>1.805612052975917</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0001743584727192467</v>
+        <v>0.1630467292351165</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9478805773468368</v>
+        <v>0.1940449985227048</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0.01897258624926606</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>flow_norm_t2_400</t>
+          <t>flow_t2_400</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2444,30 +2632,33 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.01095432239328956</v>
+        <v>-0.1491143274126904</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.05977389423709362</v>
+        <v>1.908603883718653</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0001205294080761539</v>
+        <v>0.1856492287100946</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9566574796482032</v>
+        <v>0.2158103683874985</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0.0127547558280281</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>flow_norm_t2_1500</t>
+          <t>flow_t2_1500</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>si_norm</t>
+          <t>si</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2476,19 +2667,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.3577217198956618</v>
+        <v>-0.05440863325815272</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.07829990343662875</v>
+        <v>1.963640155180746</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1297855383352563</v>
+        <v>0.1711407604379592</v>
       </c>
       <c r="G64" t="n">
-        <v>0.07062607691801275</v>
+        <v>0.2018392507921089</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0.01646921445033874</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
